--- a/data/trans_dic/P19F$noche-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19F$noche-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>73,55; 84,65</t>
+          <t>73,42; 84,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,22; 90,27</t>
+          <t>80,76; 91,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,44; 85,74</t>
+          <t>78,19; 85,69</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,15; 83,36</t>
+          <t>74,4; 83,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71,33; 81,88</t>
+          <t>71,18; 81,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>74,56; 81,19</t>
+          <t>74,4; 81,06</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>74,31; 82,82</t>
+          <t>74,78; 83,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,58; 85,8</t>
+          <t>77,8; 85,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>77,44; 83,18</t>
+          <t>77,59; 83,46</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,95; 79,37</t>
+          <t>69,3; 79,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>76,16; 84,72</t>
+          <t>76,14; 85,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>73,79; 80,34</t>
+          <t>73,65; 80,69</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>68,0; 80,06</t>
+          <t>67,99; 79,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>70,52; 81,45</t>
+          <t>70,56; 82,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>72,06; 79,7</t>
+          <t>71,43; 79,38</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>78,03; 89,32</t>
+          <t>77,16; 89,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>76,08; 86,95</t>
+          <t>75,85; 86,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>78,58; 86,6</t>
+          <t>78,96; 86,69</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>66,71; 81,17</t>
+          <t>66,75; 80,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>75,83; 89,0</t>
+          <t>74,79; 88,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>74,33; 83,92</t>
+          <t>74,8; 84,15</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>75,62; 79,59</t>
+          <t>75,56; 79,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>78,66; 82,65</t>
+          <t>78,87; 82,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>77,77; 80,66</t>
+          <t>77,76; 80,66</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, se cepilla los dientes por la noche</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>181532</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>153870</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>335402</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>168174; 193366</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>143963; 162522</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>318510; 349036</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>258606</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>208255</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>466860</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>244214; 273086</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>193469; 220940</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>446427; 486374</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>274397</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>267125</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>541522</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>259918; 288822</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>253526; 279962</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>522516; 562091</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>252703</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>267387</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>520090</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>235280; 268834</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>252047; 281421</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>493841; 541030</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>175758</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>201978</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>377736</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>160013; 187246</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>185454; 215741</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>355807; 395421</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>146216</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>151060</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>297276</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>133948; 154963</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>140173; 160400</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>282998; 310714</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>93503</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>156182</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>249685</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>83749; 101089</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>140550; 166704</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>234420; 263728</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2657</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1382714</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1405857</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2788572</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1344079; 1415670</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1374368; 1438597</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2738106; 2840362</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>